--- a/data/test_bitext_en_es.xlsx
+++ b/data/test_bitext_en_es.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9014A3BF-1107-499F-A3BC-5EE026513B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2165C4A-2C3E-4EEC-9BD6-ED10658FAFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,10 +99,10 @@
     <t>Sin embargo, los estudios moleculares indican que el panda gigante es un oso auténtico, miembro de la familia Ursidae.</t>
   </si>
   <si>
-    <t>These studies show it diverged about 19 million years ago from the common ancestor of the Ursidae</t>
-  </si>
-  <si>
-    <t>it is the most basal member of this family and equidistant from all other extant bear species.</t>
+    <t>These studies show it diverged about 19 million years ago from the common ancestor of the Ursidae.</t>
+  </si>
+  <si>
+    <t>Estos estudios muestran que hace unos 19 millones de años divergió del ancestro común de los Ursidae.</t>
   </si>
   <si>
     <t>The giant panda has been referred to as a living fossil.</t>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,10 +479,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -581,6 +581,9 @@
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/test_bitext_en_es.xlsx
+++ b/data/test_bitext_en_es.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2165C4A-2C3E-4EEC-9BD6-ED10658FAFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C534B10-424E-466C-9082-EF5AC40E7C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -582,9 +582,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/test_bitext_en_es.xlsx
+++ b/data/test_bitext_en_es.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C534B10-424E-466C-9082-EF5AC40E7C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5D8AFB2-8985-433B-BFB2-3BE47D88D869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,10 +99,10 @@
     <t>Sin embargo, los estudios moleculares indican que el panda gigante es un oso auténtico, miembro de la familia Ursidae.</t>
   </si>
   <si>
-    <t>These studies show it diverged about 19 million years ago from the common ancestor of the Ursidae.</t>
-  </si>
-  <si>
-    <t>Estos estudios muestran que hace unos 19 millones de años divergió del ancestro común de los Ursidae.</t>
+    <t>These studies show it diverged about 19 million years ago from the common ancestor of the Ursidae</t>
+  </si>
+  <si>
+    <t>Estos estudios muestran que se separó hace unos 19 millones de años del ancestro común de los Ursidae.</t>
   </si>
   <si>
     <t>The giant panda has been referred to as a living fossil.</t>
@@ -470,7 +470,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/test_bitext_en_es.xlsx
+++ b/data/test_bitext_en_es.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5D8AFB2-8985-433B-BFB2-3BE47D88D869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{859A33A4-1A9E-4855-BA0D-95ADE90A8F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>The giant panda also known as the panda bear (or simply the panda), is a bear native to South Central China.</t>
   </si>
@@ -467,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -574,14 +568,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
